--- a/struktur-database.xlsx
+++ b/struktur-database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A26D7-94B5-4DF3-A100-19D1CFFA31AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1BDAD-1171-4DAD-9A5C-ED84A03EA698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BCD942-B059-4838-9C2E-5ECCF3412B4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A6BCD942-B059-4838-9C2E-5ECCF3412B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Tabel Students</t>
   </si>
   <si>
-    <t>students_id</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>STRUKTUR DATABASE KELOMPOK 2 BASIS DATA IB 2022</t>
+  </si>
+  <si>
+    <t>student_id</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1075,280 +1075,280 @@
   <dimension ref="A2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.23046875" customWidth="1"/>
+    <col min="2" max="2" width="29.53515625" customWidth="1"/>
+    <col min="3" max="3" width="18.07421875" customWidth="1"/>
+    <col min="4" max="4" width="16.84375" customWidth="1"/>
+    <col min="5" max="5" width="14.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>8</v>
-      </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5">
         <v>100</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
         <v>50</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" s="17" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>4</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>5</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>6</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>7</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>8</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>9</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>11</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <v>12</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <v>13</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>15</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>16</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>17</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <v>18</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
         <v>20</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>21</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>22</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
         <v>23</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
         <v>24</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>25</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <v>26</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
         <v>27</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="8">
         <v>29</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
         <v>30</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
         <v>31</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="8">
         <v>32</v>
       </c>
@@ -1892,19 +1892,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/struktur-database.xlsx
+++ b/struktur-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1BDAD-1171-4DAD-9A5C-ED84A03EA698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08544D51-B1B9-4332-8FA5-0839E7722678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A6BCD942-B059-4838-9C2E-5ECCF3412B4E}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>major</t>
   </si>
   <si>
-    <t>Tabel Course</t>
-  </si>
-  <si>
     <t>course_id</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>student_id</t>
+  </si>
+  <si>
+    <t>Tabel Courses</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D035CAD-93F4-4AB6-9CE5-8AC29FA54741}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1089,7 +1089,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>1</v>
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1135,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1150,13 +1150,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1180,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1195,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1209,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1223,18 +1223,18 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>6</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5">
         <v>100</v>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5">
         <v>50</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="D26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1894,17 +1894,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/struktur-database.xlsx
+++ b/struktur-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08544D51-B1B9-4332-8FA5-0839E7722678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E92F817-2237-4EB1-9428-96BFAEB4E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A6BCD942-B059-4838-9C2E-5ECCF3412B4E}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>: PRIMARYKEY</t>
   </si>
   <si>
-    <t>: FOERIGNKEY</t>
-  </si>
-  <si>
     <t xml:space="preserve">KETERANGAN: </t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Tabel Courses</t>
+  </si>
+  <si>
+    <t>: FOREIGNKEY</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D035CAD-93F4-4AB6-9CE5-8AC29FA54741}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1089,7 +1089,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>1</v>
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1135,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1150,13 +1150,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1180,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1195,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1209,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1223,18 +1223,18 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5">
         <v>100</v>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5">
         <v>50</v>
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>4</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
@@ -1904,7 +1904,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/struktur-database.xlsx
+++ b/struktur-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E92F817-2237-4EB1-9428-96BFAEB4E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D7857F-8328-42F2-B421-80AED024D906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A6BCD942-B059-4838-9C2E-5ECCF3412B4E}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D035CAD-93F4-4AB6-9CE5-8AC29FA54741}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1268,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="5">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -1304,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="5">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D22" s="6"/>
     </row>
